--- a/data/xls/2011-09-01/20111219-EERR9-webrep-April-Sep2011-Novo-Nordisk.xlsx
+++ b/data/xls/2011-09-01/20111219-EERR9-webrep-April-Sep2011-Novo-Nordisk.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="23117"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="20" windowWidth="18960" windowHeight="11320"/>
+    <workbookView xWindow="120" yWindow="20" windowWidth="34200" windowHeight="26580"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -19402,8 +19402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:O1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A306" workbookViewId="0">
+      <selection activeCell="A316" sqref="A316:XFD407"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
